--- a/CA.xlsx
+++ b/CA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Downloads\testNGFramework\CARES---Selenium-Automation-master\src\main\java\Artifacts\TestData\SD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2AEA44-AA13-45F8-ABFD-4EBB3738E640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8729D5-AFE2-4B0A-BB9C-2D9AAD5D5561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="789" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="789" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="12" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="76">
   <si>
     <t>TestCase</t>
   </si>
@@ -114,12 +114,6 @@
     <t>test1</t>
   </si>
   <si>
-    <t>ScreeningDesc</t>
-  </si>
-  <si>
-    <t>testDesc</t>
-  </si>
-  <si>
     <t>CallerType</t>
   </si>
   <si>
@@ -132,12 +126,6 @@
     <t>testmandatedcaller</t>
   </si>
   <si>
-    <t>PreferredMethodtoReceiveERNRD</t>
-  </si>
-  <si>
-    <t>ReasonfortheCall</t>
-  </si>
-  <si>
     <t>Email/Electronic</t>
   </si>
   <si>
@@ -153,18 +141,9 @@
     <t>Home</t>
   </si>
   <si>
-    <t>phoneTextbox</t>
-  </si>
-  <si>
-    <t>Call Back Required</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
-    <t>saveAndProceedBtn</t>
-  </si>
-  <si>
     <t>today</t>
   </si>
   <si>
@@ -271,6 +250,24 @@
   </si>
   <si>
     <t>SubmitButton</t>
+  </si>
+  <si>
+    <t>CallBackRequired</t>
+  </si>
+  <si>
+    <t>PhoneTextbox</t>
+  </si>
+  <si>
+    <t>ReasonForTheCall</t>
+  </si>
+  <si>
+    <t>ScreeningNarrative</t>
+  </si>
+  <si>
+    <t>testNarative</t>
+  </si>
+  <si>
+    <t>PreferredMethodToReceiveERNRD</t>
   </si>
 </sst>
 </file>
@@ -667,7 +664,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -698,7 +695,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -765,30 +762,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095AC0F5-6F06-4C6A-A928-50E2B85F4E9E}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.08984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="38.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.90625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -799,16 +797,16 @@
         <v>20</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>5</v>
@@ -817,25 +815,22 @@
         <v>6</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -843,7 +838,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>21</v>
@@ -852,31 +847,31 @@
         <v>23</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>36</v>
       </c>
       <c r="M2">
         <v>3333333333</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -913,7 +908,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>5</v>
@@ -922,10 +917,10 @@
         <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -936,13 +931,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="1" t="s">
@@ -954,16 +949,16 @@
         <v>10</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>9</v>
@@ -980,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883FB348-BDCF-45CC-8E9B-D99297422738}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1008,34 +1003,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -1046,15 +1041,15 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H2" s="3">
         <v>94563</v>
@@ -1097,22 +1092,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -1123,16 +1118,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1165,10 +1160,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -1181,7 +1176,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -1196,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A2CF19E-A529-4B2E-B464-9747AB8E82C8}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1216,10 +1211,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -1232,7 +1227,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>

--- a/CA.xlsx
+++ b/CA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Downloads\testNGFramework\CARES---Selenium-Automation-master\src\main\java\Artifacts\TestData\SD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8729D5-AFE2-4B0A-BB9C-2D9AAD5D5561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B473640-9B1C-43E8-A2AF-4DB041A9C02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="789" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="789" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="12" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="74">
   <si>
     <t>TestCase</t>
   </si>
@@ -87,15 +87,6 @@
     <t>auto_erworker3_contracosta_v1sit@osi.ca.gov</t>
   </si>
   <si>
-    <t>ScreeningHappyPath_ErWork</t>
-  </si>
-  <si>
-    <t>ScreeningHappyPath_Sup</t>
-  </si>
-  <si>
-    <t>ScreeningHappyPath_Staff</t>
-  </si>
-  <si>
     <t>Cares@40134756379322</t>
   </si>
   <si>
@@ -268,6 +259,9 @@
   </si>
   <si>
     <t>PreferredMethodToReceiveERNRD</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -663,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A06615C4-E8DB-4399-A186-30F041CDF60D}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -695,12 +689,12 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
@@ -712,15 +706,15 @@
         <v>12</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>11</v>
@@ -729,15 +723,15 @@
         <v>13</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>11</v>
@@ -746,7 +740,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -764,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095AC0F5-6F06-4C6A-A928-50E2B85F4E9E}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -794,19 +788,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>5</v>
@@ -815,19 +809,19 @@
         <v>6</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -838,40 +832,40 @@
         <v>4</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="I2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="7" t="s">
+      <c r="K2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>30</v>
-      </c>
       <c r="L2" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M2">
         <v>3333333333</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -908,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>5</v>
@@ -917,10 +911,10 @@
         <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -931,13 +925,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="1" t="s">
@@ -949,16 +943,16 @@
         <v>10</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>9</v>
@@ -1003,34 +997,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -1041,15 +1035,15 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H2" s="3">
         <v>94563</v>
@@ -1092,22 +1086,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -1118,16 +1112,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1160,10 +1154,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -1176,7 +1170,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -1211,10 +1205,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -1227,7 +1221,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -1239,6 +1233,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004E343A23AD63CB41B4E4C7703478C338" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7a98c6998acff090412b04a3311ec21a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d0b0af3-6c81-4d06-b483-03fba4523004" xmlns:ns3="ca3b047a-aabc-42bd-9935-6afcb58edb36" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6f3fa3ae5ecf51694a738fe5aa86796b" ns2:_="" ns3:_="">
     <xsd:import namespace="4d0b0af3-6c81-4d06-b483-03fba4523004"/>
@@ -1455,12 +1455,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1471,6 +1465,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AD311FD-BD12-44EC-AC18-3718187F58BC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0025C662-EF81-4F0A-ACDC-56DE647F363F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1489,15 +1492,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AD311FD-BD12-44EC-AC18-3718187F58BC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6BC2EE6-231E-4FEF-85AD-1F5164E0AACF}">
   <ds:schemaRefs>

--- a/CA.xlsx
+++ b/CA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Downloads\testNGFramework\CARES---Selenium-Automation-master\src\main\java\Artifacts\TestData\SD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B473640-9B1C-43E8-A2AF-4DB041A9C02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EE4643-8781-453C-8322-A654455F3C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="789" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="77">
   <si>
     <t>TestCase</t>
   </si>
@@ -262,6 +262,15 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>ScreeningFolio</t>
+  </si>
+  <si>
+    <t>ScreeningHappyPath1</t>
   </si>
 </sst>
 </file>
@@ -655,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A06615C4-E8DB-4399-A186-30F041CDF60D}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -743,14 +752,33 @@
         <v>16</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{1F859071-5781-4C57-BD8B-D8C9BC8A3594}"/>
     <hyperlink ref="C4" r:id="rId2" xr:uid="{87E8BD98-5377-4599-9079-95BBB633040C}"/>
     <hyperlink ref="C3" r:id="rId3" xr:uid="{B671F7A1-B53B-4353-8AAF-6727BF3B7C9C}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{FE28527E-6545-42E0-A85E-5A572C810B12}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -877,10 +905,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD0ACE8-E502-479C-B62E-9A5431977BA7}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -958,6 +986,30 @@
         <v>9</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -969,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883FB348-BDCF-45CC-8E9B-D99297422738}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
